--- a/f5hklab_ip.xlsx
+++ b/f5hklab_ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.siu/Data/f5hklab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E02D8-FEA0-924E-A42E-05CC728CA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E989D305-0286-9347-82C7-C1F12DFDEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1360" windowWidth="31260" windowHeight="19200" xr2:uid="{8BC7CC25-263F-9643-81CA-97EEC2F85833}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <t>Mgmt - 192.168.100.0/24</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>192.168.120.21</t>
+  </si>
+  <si>
+    <t>192.168.110.22</t>
+  </si>
+  <si>
+    <t>192.168.120.22</t>
   </si>
 </sst>
 </file>
@@ -877,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -927,7 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1266,7 +1271,7 @@
   <dimension ref="B1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,11 +1438,17 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="33" t="s">
         <v>172</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">

--- a/f5hklab_ip.xlsx
+++ b/f5hklab_ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.siu/Data/f5hklab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E989D305-0286-9347-82C7-C1F12DFDEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584DC89-5A3E-F242-B23D-986345991DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1360" windowWidth="31260" windowHeight="19200" xr2:uid="{8BC7CC25-263F-9643-81CA-97EEC2F85833}"/>
   </bookViews>
@@ -609,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +634,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -883,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -933,6 +939,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1270,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20D092-F120-5342-A616-A380026CBE4A}">
   <dimension ref="B1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1900,7 @@
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -1907,7 +1914,7 @@
       <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="4" t="s">

--- a/f5hklab_ip.xlsx
+++ b/f5hklab_ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.siu/Data/f5hklab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584DC89-5A3E-F242-B23D-986345991DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E02A1C0-0215-F049-A912-6C146C7479C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1360" windowWidth="31260" windowHeight="19200" xr2:uid="{8BC7CC25-263F-9643-81CA-97EEC2F85833}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t>Mgmt - 192.168.100.0/24</t>
   </si>
@@ -383,9 +383,6 @@
     <t>WiFi DHCP</t>
   </si>
   <si>
-    <t>External/Clinet</t>
-  </si>
-  <si>
     <t>Internal/Server</t>
   </si>
   <si>
@@ -557,12 +554,6 @@
     <t>Next-VE-22</t>
   </si>
   <si>
-    <t>Tenant-20 (BigIP-A-20)</t>
-  </si>
-  <si>
-    <t>Tenant-30 (BigIP-A-30)</t>
-  </si>
-  <si>
     <t>192.168.110.21</t>
   </si>
   <si>
@@ -573,6 +564,51 @@
   </si>
   <si>
     <t>192.168.120.22</t>
+  </si>
+  <si>
+    <t>192.168.110.20</t>
+  </si>
+  <si>
+    <t>192.168.120.20</t>
+  </si>
+  <si>
+    <t>Tenant-20 (VE-A-20)</t>
+  </si>
+  <si>
+    <t>Tenant-30 (VE-A-30)</t>
+  </si>
+  <si>
+    <t>192.168.110.0/24</t>
+  </si>
+  <si>
+    <t>192.168.120.0/24</t>
+  </si>
+  <si>
+    <t>192.168.130.0/24</t>
+  </si>
+  <si>
+    <t>External/Client</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>192.168.110.23</t>
+  </si>
+  <si>
+    <t>192.168.110.24</t>
+  </si>
+  <si>
+    <t>192.168.110.30</t>
+  </si>
+  <si>
+    <t>192.168.120.30</t>
   </si>
 </sst>
 </file>
@@ -609,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -777,10 +819,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -796,6 +849,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -805,6 +873,123 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -812,9 +997,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -822,66 +1005,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -889,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -908,16 +1035,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,21 +1048,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1275,985 +1435,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20D092-F120-5342-A616-A380026CBE4A}">
-  <dimension ref="B1:H101"/>
+  <dimension ref="B1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B69"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="8" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="9" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="E3" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="56"/>
+      <c r="C4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="42"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="57"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="56"/>
+      <c r="C10" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="56"/>
+      <c r="C14" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="C15" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="56"/>
+      <c r="C24" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="42"/>
+      <c r="C25" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="31"/>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="31"/>
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="31"/>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
+      <c r="E38" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="27" t="s">
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="E39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="D42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="28" t="s">
+    </row>
+    <row r="43" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="22"/>
+      <c r="D44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="11"/>
+      <c r="D67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+      <c r="D68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C70" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="11"/>
+      <c r="D71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
+      <c r="D72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="11"/>
+      <c r="D73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C74" s="11"/>
+      <c r="D74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
+      <c r="D75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
+      <c r="D76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="14"/>
+      <c r="D77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="11"/>
-      <c r="C66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
-      <c r="C67" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="29"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="11"/>
-      <c r="C70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="11"/>
-      <c r="C71" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="11"/>
-      <c r="C72" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="11"/>
-      <c r="C73" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="11"/>
-      <c r="C74" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="11"/>
-      <c r="C75" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="10" t="s">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D80" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="11" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C81" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="11" t="s">
+      <c r="E81" s="3"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C82" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="11" t="s">
+      <c r="E82" s="3"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="11" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C84" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="11" t="s">
+      <c r="E84" s="3"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C85" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="11" t="s">
+      <c r="E85" s="3"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C86" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="11"/>
-      <c r="C86" s="4" t="s">
+      <c r="E86" s="3"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C87" s="11"/>
+      <c r="D87" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="11"/>
-      <c r="C87" s="4" t="s">
+      <c r="E87" s="3"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88" s="11"/>
+      <c r="D88" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="11" t="s">
+      <c r="E88" s="3"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C89" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="11" t="s">
+      <c r="E89" s="3"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C90" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="11"/>
-      <c r="C90" s="4" t="s">
+      <c r="E90" s="3"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C91" s="11"/>
+      <c r="D91" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="11"/>
-      <c r="C91" s="4" t="s">
+      <c r="E91" s="3"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C92" s="11"/>
+      <c r="D92" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="11"/>
-      <c r="C92" s="4" t="s">
+      <c r="E92" s="3"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C93" s="11"/>
+      <c r="D93" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="11"/>
-      <c r="C93" s="4" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C94" s="11"/>
+      <c r="D94" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="11"/>
-      <c r="C94" s="4" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C95" s="11"/>
+      <c r="D95" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="11"/>
-      <c r="C95" s="4" t="s">
+      <c r="E95" s="3"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C96" s="11"/>
+      <c r="D96" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="11"/>
-      <c r="C96" s="4" t="s">
+      <c r="E96" s="3"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="11"/>
+      <c r="D97" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="13" t="s">
+      <c r="E97" s="3"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="11" t="s">
+      <c r="E98" s="1"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
+      <c r="E99" s="3"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C100" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="11" t="s">
+      <c r="E100" s="3"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C101" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="14"/>
-      <c r="C101" s="6" t="s">
+      <c r="E101" s="3"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="14"/>
+      <c r="D102" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="6"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H40" r:id="rId1" xr:uid="{8332B445-4788-3949-B6F7-0E2188B90A6F}"/>
-    <hyperlink ref="G40" r:id="rId2" xr:uid="{B1A70D3C-E79B-384F-836D-81E5CCCD5278}"/>
-    <hyperlink ref="G78" r:id="rId3" xr:uid="{A3C5B52B-514E-1644-8193-8A7EC704EB9D}"/>
-    <hyperlink ref="D37" r:id="rId4" xr:uid="{C6CBA2E5-5E1C-2E4F-9B63-683FB05E79B0}"/>
+    <hyperlink ref="I41" r:id="rId1" xr:uid="{8332B445-4788-3949-B6F7-0E2188B90A6F}"/>
+    <hyperlink ref="H41" r:id="rId2" xr:uid="{B1A70D3C-E79B-384F-836D-81E5CCCD5278}"/>
+    <hyperlink ref="H79" r:id="rId3" xr:uid="{A3C5B52B-514E-1644-8193-8A7EC704EB9D}"/>
+    <hyperlink ref="E38" r:id="rId4" xr:uid="{C6CBA2E5-5E1C-2E4F-9B63-683FB05E79B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/f5hklab_ip.xlsx
+++ b/f5hklab_ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.siu/Data/f5hklab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E02A1C0-0215-F049-A912-6C146C7479C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E15C296-44D9-CA47-B5CB-54AE6B979BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1360" windowWidth="31260" windowHeight="19200" xr2:uid="{8BC7CC25-263F-9643-81CA-97EEC2F85833}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="191">
   <si>
     <t>Mgmt - 192.168.100.0/24</t>
   </si>
@@ -332,12 +332,6 @@
     <t>SNAT-238</t>
   </si>
   <si>
-    <t>VS-221</t>
-  </si>
-  <si>
-    <t>VS-222</t>
-  </si>
-  <si>
     <t>VS-241</t>
   </si>
   <si>
@@ -380,9 +374,6 @@
     <t>192.168.120.209</t>
   </si>
   <si>
-    <t>WiFi DHCP</t>
-  </si>
-  <si>
     <t>Internal/Server</t>
   </si>
   <si>
@@ -398,18 +389,12 @@
     <t>192.168.100.200 (vmbr1)</t>
   </si>
   <si>
-    <t>192.168.110.221</t>
-  </si>
-  <si>
     <t>192.168.110.199 (vmbr3)</t>
   </si>
   <si>
     <t>192.168.120.199 (vmbr2)</t>
   </si>
   <si>
-    <t>192.168.110.222</t>
-  </si>
-  <si>
     <t>Yunke-VE-01</t>
   </si>
   <si>
@@ -449,9 +434,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>192.168.100.6 - 9</t>
-  </si>
-  <si>
     <t>192.168.100.49</t>
   </si>
   <si>
@@ -609,6 +591,24 @@
   </si>
   <si>
     <t>192.168.120.30</t>
+  </si>
+  <si>
+    <t>192.168.100.240 - 249</t>
+  </si>
+  <si>
+    <t>5G-WiFi DHCP</t>
+  </si>
+  <si>
+    <t>VE-FIP</t>
+  </si>
+  <si>
+    <t>192.168.100.196 (vmbr1)</t>
+  </si>
+  <si>
+    <t>192.168.110.197 (vmbr3)</t>
+  </si>
+  <si>
+    <t>192.168.120.197 (vmbr2)</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1024,7 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1056,7 +1055,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1100,6 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1437,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20D092-F120-5342-A616-A380026CBE4A}">
   <dimension ref="B1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1450,1122 +1452,1125 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>116</v>
+      <c r="E2" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="57"/>
+      <c r="C4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="61"/>
+      <c r="C5" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="45" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="42"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="58"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="52"/>
+      <c r="C9" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="65" t="s">
-        <v>146</v>
+      <c r="B10" s="43"/>
+      <c r="C10" s="67" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="40" t="s">
+      <c r="B11" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="62" t="s">
+      <c r="D13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="43"/>
+      <c r="C14" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
-      <c r="C14" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>8</v>
+      <c r="D14" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="32" t="s">
+      <c r="E20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="32" t="s">
+      <c r="E21" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="32" t="s">
+      <c r="E22" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="57"/>
+      <c r="C23" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="32" t="s">
+      <c r="E23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="43"/>
+      <c r="C24" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="54"/>
-    </row>
-    <row r="23" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
-      <c r="C24" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>160</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="21"/>
+      <c r="D43" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="21" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F45" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="22"/>
-      <c r="D44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C45" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="17"/>
+      <c r="F47" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="18"/>
+      <c r="D48" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C52" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="F57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="13"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C69" s="35" t="s">
-        <v>98</v>
-      </c>
+      <c r="C69" s="36"/>
       <c r="D69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="11"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C70" s="35" t="s">
-        <v>99</v>
-      </c>
+      <c r="C70" s="30"/>
       <c r="D70" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="11"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="11"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C73" s="11"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C74" s="11"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C75" s="11"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="10"/>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C76" s="11"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="14"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="14"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="27" t="s">
-        <v>127</v>
+      <c r="H79" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E85" s="3"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C87" s="11"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C88" s="11"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E88" s="3"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C89" s="11" t="s">
-        <v>100</v>
+      <c r="C89" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C90" s="11" t="s">
-        <v>101</v>
+      <c r="C90" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C91" s="11"/>
+      <c r="C91" s="10"/>
       <c r="D91" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E91" s="3"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C92" s="11"/>
+      <c r="C92" s="10"/>
       <c r="D92" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E92" s="3"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C93" s="11"/>
+      <c r="C93" s="10"/>
       <c r="D93" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="3"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C94" s="11"/>
+      <c r="C94" s="10"/>
       <c r="D94" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C95" s="11"/>
+      <c r="C95" s="10"/>
       <c r="D95" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C96" s="11"/>
+      <c r="C96" s="10"/>
       <c r="D96" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="11"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E97" s="3"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="13"/>
+      <c r="F98" s="12"/>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E99" s="3"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E100" s="3"/>
-      <c r="F100" s="11"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E101" s="3"/>
-      <c r="F101" s="11"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="14"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="14"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I41" r:id="rId1" xr:uid="{8332B445-4788-3949-B6F7-0E2188B90A6F}"/>
-    <hyperlink ref="H41" r:id="rId2" xr:uid="{B1A70D3C-E79B-384F-836D-81E5CCCD5278}"/>
+    <hyperlink ref="I40" r:id="rId1" xr:uid="{8332B445-4788-3949-B6F7-0E2188B90A6F}"/>
+    <hyperlink ref="H40" r:id="rId2" xr:uid="{B1A70D3C-E79B-384F-836D-81E5CCCD5278}"/>
     <hyperlink ref="H79" r:id="rId3" xr:uid="{A3C5B52B-514E-1644-8193-8A7EC704EB9D}"/>
-    <hyperlink ref="E38" r:id="rId4" xr:uid="{C6CBA2E5-5E1C-2E4F-9B63-683FB05E79B0}"/>
+    <hyperlink ref="E37" r:id="rId4" xr:uid="{C6CBA2E5-5E1C-2E4F-9B63-683FB05E79B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
